--- a/inst/dados_premissas/2022/total_domicilios.xlsx
+++ b/inst/dados_premissas/2022/total_domicilios.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Geracao Distribuida\PDE\PDE2031\entrada_4md\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDED7888-90C2-41DD-8ACB-E9D17B083770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,21 +392,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="23" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -419,7 +422,7 @@
         <v>59138129.003021143</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -427,7 +430,7 @@
         <v>60274971.012716025</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -435,7 +438,7 @@
         <v>61421610.681690149</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -443,7 +446,7 @@
         <v>62581981.182169363</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -451,7 +454,7 @@
         <v>63766595.382312879</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -459,7 +462,7 @@
         <v>64959670.043559559</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -467,7 +470,7 @@
         <v>66148593.01471094</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -475,7 +478,7 @@
         <v>67352162.358958989</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -483,7 +486,7 @@
         <v>68569558.137046471</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -491,7 +494,7 @@
         <v>69786611.591660574</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -499,7 +502,7 @@
         <v>71001451.673591301</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -507,7 +510,7 @@
         <v>72212363.444101244</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -515,7 +518,7 @@
         <v>73417379.117373198</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -523,7 +526,7 @@
         <v>74615166.869992167</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -531,7 +534,7 @@
         <v>75805070.617079303</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -539,7 +542,7 @@
         <v>76986203.187072664</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -547,7 +550,7 @@
         <v>78157392.717698827</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -555,7 +558,7 @@
         <v>79317457.55800581</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -563,7 +566,7 @@
         <v>80465371.70900923</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -571,7 +574,7 @@
         <v>81600427.40274246</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -579,7 +582,7 @@
         <v>82721874.353064939</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -587,7 +590,7 @@
         <v>83828643.001719803</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -595,7 +598,7 @@
         <v>84919772.674836576</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -603,7 +606,7 @@
         <v>85994615.333245307</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -611,7 +614,7 @@
         <v>87052578.346214905</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -619,7 +622,7 @@
         <v>88092914.320484787</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -627,7 +630,7 @@
         <v>89114723.720352575</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -635,7 +638,7 @@
         <v>90117279.769513041</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -643,7 +646,7 @@
         <v>91100028.360148892</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -651,7 +654,7 @@
         <v>92062424.066691503</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -659,7 +662,7 @@
         <v>93003956.355551571</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -667,7 +670,7 @@
         <v>93924215.683079466</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -675,7 +678,7 @@
         <v>94822914.547324955</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -683,7 +686,7 @@
         <v>95699636.771202028</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -691,7 +694,7 @@
         <v>96553798.654277846</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -699,7 +702,7 @@
         <v>97384818.963859499</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -707,7 +710,7 @@
         <v>98192230.585322231</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -715,7 +718,7 @@
         <v>98975640.090954766</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -723,7 +726,7 @@
         <v>99734448.359178543</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -731,12 +734,92 @@
         <v>100467852.92232786</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2050</v>
       </c>
       <c r="B42">
         <v>101175152.61561994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2051</v>
+      </c>
+      <c r="B43">
+        <v>101899855.555484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2052</v>
+      </c>
+      <c r="B44">
+        <v>102620207.683704</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2053</v>
+      </c>
+      <c r="B45">
+        <v>103340559.81192499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2054</v>
+      </c>
+      <c r="B46">
+        <v>104060911.940146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2055</v>
+      </c>
+      <c r="B47">
+        <v>104781264.06836601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2056</v>
+      </c>
+      <c r="B48">
+        <v>105501616.196587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2057</v>
+      </c>
+      <c r="B49">
+        <v>106221968.324808</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2058</v>
+      </c>
+      <c r="B50">
+        <v>106942320.45302799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2059</v>
+      </c>
+      <c r="B51">
+        <v>107662672.581249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2060</v>
+      </c>
+      <c r="B52">
+        <v>108383024.70947</v>
       </c>
     </row>
   </sheetData>
